--- a/livelib/tests/data/sample/test_export/xlsx/create_file/Humming_Bird-correct_output.xlsx
+++ b/livelib/tests/data/sample/test_export/xlsx/create_file/Humming_Bird-correct_output.xlsx
@@ -1926,7 +1926,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="100" customHeight="1">
+    <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>Родная природа. Сказки и рассказы (сборник)</t>
